--- a/DATA_goal/Junction_Flooding_375.xlsx
+++ b/DATA_goal/Junction_Flooding_375.xlsx
@@ -445,9 +445,9 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.1</v>
+        <v>61.04</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.45</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.98</v>
+        <v>129.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_375.xlsx
+++ b/DATA_goal/Junction_Flooding_375.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45056.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45056.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.09</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.54</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.677</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.81</v>
+        <v>29.127</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.03</v>
+        <v>22.997</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.99</v>
+        <v>10.461</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.55</v>
+        <v>40.459</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.98</v>
+        <v>6.969</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.45</v>
+        <v>10.149</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.27</v>
+        <v>11.629</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.06</v>
+        <v>12.291</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>3.382</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.53</v>
+        <v>14.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.202</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.37</v>
+        <v>1.447</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.14</v>
+        <v>152.911</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.19</v>
+        <v>29.467</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.72</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.05</v>
+        <v>19.397</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.15</v>
+        <v>10.372</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.023</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.73</v>
+        <v>19.571</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.13</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.761</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.167999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.36</v>
+        <v>12.229</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.37</v>
+        <v>37.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>5.277</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45056.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.5</v>
+        <v>2.883</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.44</v>
+        <v>1.712</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.855</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.64</v>
+        <v>6.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.11</v>
+        <v>4.375</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.164</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.8</v>
+        <v>13.835</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.49</v>
+        <v>3.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.07</v>
+        <v>1.421</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.24</v>
+        <v>1.784</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.81</v>
+        <v>2.472</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.82</v>
+        <v>2.63</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.74</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.18</v>
+        <v>2.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.72</v>
+        <v>3.141</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.55</v>
+        <v>2.229</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.895</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.04</v>
+        <v>27.083</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.45</v>
+        <v>6.651</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.39</v>
+        <v>2.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.49</v>
+        <v>4.206</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.23</v>
+        <v>2.272</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.724</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.49</v>
+        <v>6.081</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.64</v>
+        <v>1.839</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.98</v>
+        <v>1.795</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.58</v>
+        <v>2.111</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.71</v>
+        <v>2.593</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.8</v>
+        <v>13.198</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>0.998</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.98</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45056.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.07</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.76</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.41</v>
+        <v>2.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.55</v>
+        <v>1.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.52</v>
+        <v>5.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.58</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.24</v>
+        <v>0.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.77</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.92</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.26</v>
+        <v>0.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.15</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.33</v>
+        <v>0.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.81</v>
+        <v>4.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.14</v>
+        <v>2.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.08</v>
+        <v>1.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.3</v>
+        <v>2.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.33</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.27</v>
+        <v>0.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.43</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.9</v>
+        <v>0.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.15</v>
+        <v>5.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_375.xlsx
+++ b/DATA_goal/Junction_Flooding_375.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45056.50694444445</v>
+        <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.374</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.112</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.717</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.732</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.126</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.943</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.363</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.615</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.558</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.183</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.932</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.607</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.86</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.031</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.608</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.57</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.118</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.764</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>175.75</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.355</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.105</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.604</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.537</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.926</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.421</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.874000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.611</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.63</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.312</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.661</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.894</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.883</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45056.51388888889</v>
+        <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.452</v>
+        <v>3.093</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.414999999999999</v>
+        <v>1.539</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.677</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.127</v>
+        <v>2.812</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.997</v>
+        <v>3.027</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.461</v>
+        <v>1.992</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40.459</v>
+        <v>5.548</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.288</v>
+        <v>1.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.969</v>
+        <v>0.982</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.149</v>
+        <v>2.445</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.629</v>
+        <v>1.274</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.291</v>
+        <v>1.063</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.382</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.527</v>
+        <v>0.998</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.77</v>
+        <v>2.532</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.202</v>
+        <v>0.984</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.447</v>
+        <v>0.371</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.911</v>
+        <v>15.142</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.467</v>
+        <v>4.186</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>1.722</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.397</v>
+        <v>3.045</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.372</v>
+        <v>1.146</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.023</v>
+        <v>0.198</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.571</v>
+        <v>2.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.583</v>
+        <v>1.135</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.761</v>
+        <v>0.701</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.167999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.229</v>
+        <v>2.364</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.16</v>
+        <v>4.366</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.277</v>
+        <v>0.495</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.148</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45056.52083333334</v>
+        <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.883</v>
+        <v>6.502</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.712</v>
+        <v>4.441</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.855</v>
+        <v>0.101</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.214</v>
+        <v>11.641</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.375</v>
+        <v>10.112</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.164</v>
+        <v>4.893</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.835</v>
+        <v>14.795</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.49</v>
+        <v>6.491</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.421</v>
+        <v>3.071</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.784</v>
+        <v>5.235</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.472</v>
+        <v>4.808</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.63</v>
+        <v>4.824</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.256</v>
+        <v>4.182</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.141</v>
+        <v>6.715</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.229</v>
+        <v>3.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.895</v>
+        <v>0.325</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.099</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.083</v>
+        <v>61.04</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.651</v>
+        <v>12.448</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.082</v>
+        <v>4.387</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.206</v>
+        <v>8.491</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.272</v>
+        <v>4.226</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.724</v>
+        <v>0.592</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.081</v>
+        <v>7.488</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.839</v>
+        <v>3.638</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.795</v>
+        <v>2.979</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.111</v>
+        <v>3.579</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.593</v>
+        <v>5.709</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.198</v>
+        <v>12.797</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.998</v>
+        <v>2.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.608</v>
+        <v>4.977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45056.52777777778</v>
+        <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>12.068</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>8.763</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.296</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.06</v>
+        <v>24.412</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.11</v>
+        <v>20.555</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.67</v>
+        <v>9.355</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.94</v>
+        <v>32.519</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>13.579</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.42</v>
+        <v>6.245</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.35</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.82</v>
+        <v>9.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.89</v>
+        <v>10.259</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.01</v>
+        <v>13.147</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.91</v>
+        <v>7.328</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.324</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.17</v>
+        <v>129.812</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.32</v>
+        <v>25.143</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>8.496</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.35</v>
+        <v>17.084</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>8.788</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.183</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.39</v>
+        <v>16.305</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>7.334</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.432</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.85</v>
+        <v>10.901</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.72</v>
+        <v>29.152</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>4.594</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>10.243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>129.87</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_375.xlsx
+++ b/DATA_goal/Junction_Flooding_375.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45056.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45056.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.093</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.539</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.677</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.812</v>
+        <v>29.127</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.027</v>
+        <v>22.997</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.992</v>
+        <v>10.461</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.548</v>
+        <v>40.459</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.982</v>
+        <v>6.969</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.445</v>
+        <v>10.149</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.274</v>
+        <v>11.629</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.063</v>
+        <v>12.291</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>3.382</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.998</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.532</v>
+        <v>14.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.984</v>
+        <v>9.202</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.371</v>
+        <v>1.447</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.142</v>
+        <v>152.911</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.186</v>
+        <v>29.467</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.722</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.045</v>
+        <v>19.397</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.146</v>
+        <v>10.372</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.198</v>
+        <v>2.023</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.73</v>
+        <v>19.571</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.135</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.701</v>
+        <v>7.761</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>9.167999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.364</v>
+        <v>12.229</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.366</v>
+        <v>37.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.495</v>
+        <v>5.277</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.388</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45056.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.502</v>
+        <v>2.883</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.441</v>
+        <v>1.712</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.101</v>
+        <v>0.855</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.641</v>
+        <v>6.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.112</v>
+        <v>4.375</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.893</v>
+        <v>2.164</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.795</v>
+        <v>13.835</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.491</v>
+        <v>3.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.071</v>
+        <v>1.421</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.235</v>
+        <v>1.784</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.808</v>
+        <v>2.472</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.824</v>
+        <v>2.63</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.74</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.182</v>
+        <v>2.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.715</v>
+        <v>3.141</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.55</v>
+        <v>2.229</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.325</v>
+        <v>0.895</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.099</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.04</v>
+        <v>27.083</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.448</v>
+        <v>6.651</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.387</v>
+        <v>2.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.491</v>
+        <v>4.206</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.226</v>
+        <v>2.272</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.592</v>
+        <v>0.724</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.488</v>
+        <v>6.081</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.638</v>
+        <v>1.839</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.979</v>
+        <v>1.795</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.579</v>
+        <v>2.111</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.709</v>
+        <v>2.593</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.797</v>
+        <v>13.198</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>0.998</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.977</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45056.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.068</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.763</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.296</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.412</v>
+        <v>2.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.555</v>
+        <v>1.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.355</v>
+        <v>0.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.519</v>
+        <v>5.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.579</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.245</v>
+        <v>0.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.765000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.92</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.259</v>
+        <v>0.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.782999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.147</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.328</v>
+        <v>0.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.324</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.812</v>
+        <v>4.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.143</v>
+        <v>2.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.496</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.084</v>
+        <v>1.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.788</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.183</v>
+        <v>0.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.305</v>
+        <v>2.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.334</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.27</v>
+        <v>0.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.432</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.901</v>
+        <v>0.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.152</v>
+        <v>5.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.594</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.243</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
